--- a/biology/Médecine/Eliot_Tokar/Eliot_Tokar.xlsx
+++ b/biology/Médecine/Eliot_Tokar/Eliot_Tokar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eliot Tokar, né en 1958 dans le Bronx[1], est un écrivain et conférencier américain pratiquant la médecine tibétaine. Il vit et travaille à New York. 
-Il est un des rares occidentaux à avoir étudié avec des médecins tibétains[2]. De 1983 à 1986, il reçoit des enseignements de Yeshi Dhonden, ancien médecin personnel du 14e dalai lama du Tibet[1]. Après 1986, Tokar étudie auprès du lama et médecin Trogawa Rinpoché, fondateur de l'Institut Chakpori de médecine tibétaine à Darjeeling en Inde[3].  Il se forme aussi auprès de nombreux autres médecins tibétains dont Shakya Dorje, Thubten Phuntsog et Kuzang Nyima. Il reçoit finalement des formations en médecine traditionnelle chinoise et japonaise[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eliot Tokar, né en 1958 dans le Bronx, est un écrivain et conférencier américain pratiquant la médecine tibétaine. Il vit et travaille à New York. 
+Il est un des rares occidentaux à avoir étudié avec des médecins tibétains. De 1983 à 1986, il reçoit des enseignements de Yeshi Dhonden, ancien médecin personnel du 14e dalai lama du Tibet. Après 1986, Tokar étudie auprès du lama et médecin Trogawa Rinpoché, fondateur de l'Institut Chakpori de médecine tibétaine à Darjeeling en Inde.  Il se forme aussi auprès de nombreux autres médecins tibétains dont Shakya Dorje, Thubten Phuntsog et Kuzang Nyima. Il reçoit finalement des formations en médecine traditionnelle chinoise et japonaise.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Domaines d'intérêt et conférences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tokar donne des conférences sur la médecine traditionnelle asiatique dans des universités, des écoles et des institutions médicales aux États-Unis et dans d’autres pays. Ses publications paraissent dans des journaux américains et internationaux. Les écrits et les conférences de Tokar concernent la théorie et la pratique de la médecine tibétaine, de même que le rôle de la médecine asiatique traditionnelle dans le contexte de la mondialisation actuelle, y compris les sujets comme la biopiraterie et les problèmes de propriété intellectuelle. Alors que ses travaux sont favorables à la coopération entre la médecine asiatique traditionnelle et la biomédecine, Tokar critique certaines approches modernes de l'intégration médicale et de l'application de protocoles de recherche scientifique qui n'analysent pas les approches spécifiques utilisées dans la médecine asiatique traditionnelle[5].
-Tokar est également un conseiller d'organismes dont l'American Medical Student Association[6], et le Bureau du Tibet, représentation diplomatique du dalaï-lama aux États-Unis[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokar donne des conférences sur la médecine traditionnelle asiatique dans des universités, des écoles et des institutions médicales aux États-Unis et dans d’autres pays. Ses publications paraissent dans des journaux américains et internationaux. Les écrits et les conférences de Tokar concernent la théorie et la pratique de la médecine tibétaine, de même que le rôle de la médecine asiatique traditionnelle dans le contexte de la mondialisation actuelle, y compris les sujets comme la biopiraterie et les problèmes de propriété intellectuelle. Alors que ses travaux sont favorables à la coopération entre la médecine asiatique traditionnelle et la biomédecine, Tokar critique certaines approches modernes de l'intégration médicale et de l'application de protocoles de recherche scientifique qui n'analysent pas les approches spécifiques utilisées dans la médecine asiatique traditionnelle.
+Tokar est également un conseiller d'organismes dont l'American Medical Student Association, et le Bureau du Tibet, représentation diplomatique du dalaï-lama aux États-Unis.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Tokar, Eliot 1998, Tibetan medicine: Ancient wisdom. modern healing, AyurVijnana. 5:1, 14-16
 (en) Tokar, Eliot, Vora, Ariana 1998, Between heaven and earth: An introduction to various philosophies and approaches to medical care, American Medical Students Association's National Project on Alternative and Complementary Medicine, 1(1): 1-2
